--- a/analysis_scripts_iclamp/shr67.xlsx
+++ b/analysis_scripts_iclamp/shr67.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="96" uniqueCount="67">
   <si>
     <t>File Name</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Sweep_60</t>
+  </si>
+  <si>
+    <t>2023_03_31_02_0003.abf</t>
   </si>
 </sst>
 </file>
@@ -262,7 +265,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="true"/>
+    <col min="1" max="1" width="22.5703125" customWidth="true"/>
     <col min="2" max="2" width="9.140625" customWidth="true"/>
     <col min="3" max="3" width="9.140625" customWidth="true"/>
     <col min="4" max="4" width="9.140625" customWidth="true"/>
@@ -512,82 +515,82 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0">
+        <v>4</v>
+      </c>
+      <c r="N2" s="0">
         <v>5</v>
       </c>
-      <c r="B2" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0">
-        <v>0</v>
-      </c>
-      <c r="L2" s="0">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0">
-        <v>0</v>
-      </c>
-      <c r="N2" s="0">
-        <v>0</v>
-      </c>
       <c r="O2" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R2" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S2" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U2" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V2" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W2" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X2" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z2" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -662,32 +665,84 @@
       <c r="BI2" s="0"/>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0">
+        <v>2</v>
+      </c>
+      <c r="M3" s="0">
+        <v>4</v>
+      </c>
+      <c r="N3" s="0">
+        <v>5</v>
+      </c>
+      <c r="O3" s="0">
+        <v>7</v>
+      </c>
+      <c r="P3" s="0">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>9</v>
+      </c>
+      <c r="R3" s="0">
+        <v>9</v>
+      </c>
+      <c r="S3" s="0">
+        <v>10</v>
+      </c>
+      <c r="T3" s="0">
+        <v>10</v>
+      </c>
+      <c r="U3" s="0">
+        <v>11</v>
+      </c>
+      <c r="V3" s="0">
+        <v>11</v>
+      </c>
+      <c r="W3" s="0">
+        <v>12</v>
+      </c>
+      <c r="X3" s="0">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>13</v>
+      </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
